--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf645173f850f4a59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf6c183d53c8c4322"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rf6c183d53c8c4322"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R72f39148d6fd40c0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R72f39148d6fd40c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Reafd5dd60d4b40f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Reafd5dd60d4b40f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R05550819189348f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R05550819189348f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rddba211bf20e421e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rddba211bf20e421e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R1d44b5b2c46646a3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R1d44b5b2c46646a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Reef3d732a1d84a3b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Reef3d732a1d84a3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re9669c94984b4f23"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Re9669c94984b4f23"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rb34fda2e754e4c9e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rb34fda2e754e4c9e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R914eb169306b4696"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R914eb169306b4696"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Ra24ad80173be4638"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Ra24ad80173be4638"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R7e6a35b3cc7c49f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R7e6a35b3cc7c49f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Ra359993429c148c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Ra359993429c148c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rca73bf278d374e76"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rca73bf278d374e76"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R5a97d82dcd0b4319"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R5a97d82dcd0b4319"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R5e66389f8def4893"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R5e66389f8def4893"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8c54057035b947b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R8c54057035b947b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0bdc92cd6a834425"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R0bdc92cd6a834425"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rafd62f3b83a64856"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rafd62f3b83a64856"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R268c305f29be4a4b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="R268c305f29be4a4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc049f52e7a364740"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/54_JsonArrayFluentImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rc049f52e7a364740"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Data" sheetId="1" r:id="Rba57a2503f634bc5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
